--- a/biology/Médecine/Charles_Le_Pois/Charles_Le_Pois.xlsx
+++ b/biology/Médecine/Charles_Le_Pois/Charles_Le_Pois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Le Pois, né en 1563 à Nancy et mort en 1633 dans la même ville[1], est un médecin lorrain, professeur et doyen de l'école de médecine de l'université de Pont-à-Mousson. En 1618, il est le premier à faire de l'hystérie une maladie d'origine cérébrale et non utérine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Le Pois, né en 1563 à Nancy et mort en 1633 dans la même ville, est un médecin lorrain, professeur et doyen de l'école de médecine de l'université de Pont-à-Mousson. En 1618, il est le premier à faire de l'hystérie une maladie d'origine cérébrale et non utérine.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Nicolas Le Pois (né en 1527), est Premier médecin de Charles III, duc de Lorraine, en 1578, et l'auteur d’un livre : De Cognoscendis et curandis, præcipue internis humani corporis morbis.
 Charles est envoyé, à l'âge de 13 ans, au collège de Navarre de Paris, où il étudie les langues, les belles-lettres et la philosophie.
 En 1581, il est maître ès arts de l'université de Paris. Il étudie la médecine à Paris pendant quatre ans, et à Padoue pendant deux ans. Il prend sa licence à Paris en 1590.
-Charles revient à Nancy, où il succède à son père comme médecin de Charles III de Lorraine, alors atteint de la gravelle et auquel il conseille les eaux thermales de Spa où il l'accompagne en 1603[2].
+Charles revient à Nancy, où il succède à son père comme médecin de Charles III de Lorraine, alors atteint de la gravelle et auquel il conseille les eaux thermales de Spa où il l'accompagne en 1603.
 En 1617, il est le médecin du duc Henri II de Lorraine. Il obtient de lui l'autorisation d'établir une école de médecine à l'université de Pont-à-Mousson pour y être professeur.
-Il meurt de la peste à Nancy en 1633, lors d'une épidémie où il était venu au secours de sa ville natale[2].
+Il meurt de la peste à Nancy en 1633, lors d'une épidémie où il était venu au secours de sa ville natale.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Charles Le Pois est un érudit connaissant le grec, le latin, l'hébreu et l'arabe, et plusieurs langues modernes (l'italien, l'espagnol, etc.). Son érudition et son jugement s'appuient sur l'étude des mathématiques. Il est partisan d'une médecine d'observation de type hippocratique, dégagée des subtilités de la scolastique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles Le Pois est un érudit connaissant le grec, le latin, l'hébreu et l'arabe, et plusieurs langues modernes (l'italien, l'espagnol, etc.). Son érudition et son jugement s'appuient sur l'étude des mathématiques. Il est partisan d'une médecine d'observation de type hippocratique, dégagée des subtilités de la scolastique.
 Ses deux œuvres principales sont :
-Selectiorum observationum liber (« Choix d'observations »), Pont-à-Mousson, 1618[3]. Dans cet ouvrage plusieurs fois réédité dans toute l'Europe jusqu'en 1768[2], il est le premier à définir les troubles hystériques comme étant d'origine cérébrale et non utérine[4], ce qui sera repris par les anglais Thomas Willis (1621-1675) et Thomas Sydenham (1624-1689)[5].
+Selectiorum observationum liber (« Choix d'observations »), Pont-à-Mousson, 1618. Dans cet ouvrage plusieurs fois réédité dans toute l'Europe jusqu'en 1768, il est le premier à définir les troubles hystériques comme étant d'origine cérébrale et non utérine, ce qui sera repris par les anglais Thomas Willis (1621-1675) et Thomas Sydenham (1624-1689).
 Discours de la nature, cause et remèdes..., Pont-à-Mousson, 1623. Sur les épidémies de dysenterie.</t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue Lepois porte son nom à Nancy.
 Un rond-point Lepois porte également son nom.
